--- a/compare.xlsx
+++ b/compare.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\compare excel\compare-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>nguyễn văn mạnh</t>
   </si>
@@ -42,6 +42,12 @@
   </si>
   <si>
     <t>tphcm</t>
+  </si>
+  <si>
+    <t>dương tuấn kiệt</t>
+  </si>
+  <si>
+    <t>cần thơ</t>
   </si>
 </sst>
 </file>
@@ -359,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -414,6 +420,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
